--- a/REFLASH tool/RF.xlsx
+++ b/REFLASH tool/RF.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDY81HC\Documents\My code\REFLASH tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B7D74-A7D4-4314-9599-2C564CB37FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5432BDBD-D9AF-443C-91C4-D2BF4846B988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{931A6202-80D3-4691-832C-4CE5BC1701BA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>1 BaseSW</t>
   </si>
   <si>
-    <t>1.1 Select and check variant</t>
-  </si>
-  <si>
     <t>To Select and check variant</t>
   </si>
   <si>
@@ -145,175 +142,49 @@
 </t>
   </si>
   <si>
-    <t>1.2 DID - Programming Counter &amp;  Attempt Counter</t>
-  </si>
-  <si>
-    <t>1.2.1 F195</t>
-  </si>
-  <si>
     <t>To check value of the DID F195</t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F195 using physical addressing
-2) Send service 0x22 to the camera for the DID F195 using functional addressing</t>
-  </si>
-  <si>
-    <t>1) -
-2) -</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(22f195, 62f195424c30355632.{4}, Regexp)
-2) FunctionalMessage(22f195, 62f195424c30355632.{4}, Regexp)</t>
-  </si>
-  <si>
-    <t>1.2.2 F180</t>
-  </si>
-  <si>
     <t>To check value of the DID F180</t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F180 using physical addressing
-2) Send service 0x22 to the camera for the DID F180 using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(22f180, 62f180383534303030394146433033422e303031, Equal)
-2) FunctionalMessage(22f180, 62f180383534303030394146433033422e303031, Equal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.3 F181  </t>
-  </si>
-  <si>
     <t>To check value of the DID F181</t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F181 using physical addressing
-2) Send service 0x22 to the camera for the DID F181 using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(22f181, 62f181383534303030394146433033412e303032, Equal)
-2) FunctionalMessage(22f181, 62f181383534303030394146433033412e303032, Equal)</t>
-  </si>
-  <si>
-    <t>1.2.4 F187</t>
-  </si>
-  <si>
     <t>To check value of the DID F187</t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing
-2) Send service 0x22 to the camera for the DID F187 using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(22f187, 62f1873835343030303941464330333030, Equal)
-2) FunctionalMessage(22f187, 62f1873835343030303941464330333030, Equal)</t>
-  </si>
-  <si>
     <t>ID_10</t>
   </si>
   <si>
-    <t>1.2.5 F189</t>
-  </si>
-  <si>
     <t>To check value of the DID F189</t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing
-2) Send service 0x22 to the camera for the DID F189 using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(22f189, 62f189383534303030394146433033532e303032, Equal)
-2) FunctionalMessage(22f189, 62f189383534303030394146433033532e303032, Equal)</t>
-  </si>
-  <si>
     <t>ID_11</t>
   </si>
   <si>
-    <t>1.2.6 F17F</t>
-  </si>
-  <si>
     <t>To check value of the DID F17F</t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F17F using physical addressing
-2) Send service 0x22 to the camera for the DID F17F using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(22f17f, 62f17f383534303030394146433033482e303030, Equal)
-2) FunctionalMessage(22f17f, 62f17f383534303030394146433033482e303030, Equal)</t>
-  </si>
-  <si>
     <t>ID_12</t>
   </si>
   <si>
-    <t>1.2.7 F1B2</t>
-  </si>
-  <si>
     <t>To check value of the DID F1B2</t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F1B2 using physical addressing
-2) Send service 0x22 to the camera for the DID F1B2 using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(22f1b2, 62f1b2383534303030394146433033432e303032, Equal)
-2) FunctionalMessage(22f1b2, 62f1b2383534303030394146433033432e303032, Equal)</t>
-  </si>
-  <si>
     <t>ID_13</t>
   </si>
   <si>
-    <t>1.2.8 F10B</t>
-  </si>
-  <si>
     <t>To check value of the DID F10B</t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F10B using physical addressing
-2) Send service 0x22 to the camera for the DID F10B using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(22f10b, 62f10b.{8}, Regexp)
-2) FunctionalMessage(22f10b, 62f10b.{8}, Regexp)</t>
-  </si>
-  <si>
     <t>ID_14</t>
   </si>
   <si>
-    <t>1.2.9 0200</t>
-  </si>
-  <si>
-    <t>To check value of the DID 0200</t>
-  </si>
-  <si>
-    <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing
-2) Send service 0x22 to the camera for the DID 0200 using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(220200, 620200.{4}, Regexp)
-2) FunctionalMessage(220200, 620200.{4}, Regexp)</t>
-  </si>
-  <si>
     <t>ID_15</t>
   </si>
   <si>
-    <t>1.2.10 0201</t>
-  </si>
-  <si>
-    <t>To check value of the DID 0201</t>
-  </si>
-  <si>
-    <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing
-2) Send service 0x22 to the camera for the DID 0201 using functional addressing</t>
-  </si>
-  <si>
-    <t>1) RequestResponse(220201, 620201.{4}, Regexp)
-2) FunctionalMessage(220201, 620201.{4}, Regexp)</t>
-  </si>
-  <si>
     <t>ID_16</t>
-  </si>
-  <si>
-    <t>1.2.11 F1E0</t>
   </si>
   <si>
     <t xml:space="preserve">1) Access to RBEOL
@@ -330,33 +201,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
-2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
-3) wait(5000)
-4) RequestResponse(22f1e0, 62f10b.{8}, Regexp)
-</t>
-  </si>
-  <si>
     <t>ID_17</t>
   </si>
   <si>
-    <t>1.2.12 F1DD</t>
-  </si>
-  <si>
     <t>To check value of the DID F1DD</t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
-2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
-3) wait(5000)
-4) RequestResponse(22f1dd, 62f10b.{8}, Regexp)
-</t>
-  </si>
-  <si>
     <t>ID_18</t>
-  </si>
-  <si>
-    <t>1.2.13 4255</t>
   </si>
   <si>
     <t>To check value of the DID 4255</t>
@@ -379,9 +230,6 @@
     <t>ID_19</t>
   </si>
   <si>
-    <t>1.2.14 4259</t>
-  </si>
-  <si>
     <t>To check value of the DID 4259</t>
   </si>
   <si>
@@ -392,120 +240,312 @@
 </t>
   </si>
   <si>
+    <t>ID_20</t>
+  </si>
+  <si>
+    <t>2 Latest SW</t>
+  </si>
+  <si>
+    <t>ID_21</t>
+  </si>
+  <si>
+    <t>ID_22</t>
+  </si>
+  <si>
+    <t>ID_23</t>
+  </si>
+  <si>
+    <t>ID_24</t>
+  </si>
+  <si>
+    <t>ID_25</t>
+  </si>
+  <si>
+    <t>ID_26</t>
+  </si>
+  <si>
+    <t>ID_27</t>
+  </si>
+  <si>
+    <t>ID_28</t>
+  </si>
+  <si>
+    <t>ID_29</t>
+  </si>
+  <si>
+    <t>ID_30</t>
+  </si>
+  <si>
+    <t>ID_31</t>
+  </si>
+  <si>
+    <t>ID_32</t>
+  </si>
+  <si>
+    <t>ID_33</t>
+  </si>
+  <si>
+    <t>ID_34</t>
+  </si>
+  <si>
+    <t>ID_35</t>
+  </si>
+  <si>
+    <t>ID_36</t>
+  </si>
+  <si>
+    <t>1.1 DID &amp; VARIANT</t>
+  </si>
+  <si>
+    <t>1.1.1 Select and check variant</t>
+  </si>
+  <si>
+    <t>1.1.2 F195</t>
+  </si>
+  <si>
+    <t>1.1.3 F180</t>
+  </si>
+  <si>
+    <t>1.1.4 F181</t>
+  </si>
+  <si>
+    <t>1.1.5 F187</t>
+  </si>
+  <si>
+    <t>1.1.6 F189</t>
+  </si>
+  <si>
+    <t>1.1.7 F17F</t>
+  </si>
+  <si>
+    <t>1.1.8 F1B2</t>
+  </si>
+  <si>
+    <t>1.1.9 F10B</t>
+  </si>
+  <si>
+    <t>2.1 DID &amp; VARIANT</t>
+  </si>
+  <si>
+    <t>2.1.1 Select and check variant</t>
+  </si>
+  <si>
+    <t>2.1.2 F195</t>
+  </si>
+  <si>
+    <t>2.1.3 F180</t>
+  </si>
+  <si>
+    <t>2.1.4 F181</t>
+  </si>
+  <si>
+    <t>2.1.5 F187</t>
+  </si>
+  <si>
+    <t>2.1.6 F189</t>
+  </si>
+  <si>
+    <t>2.1.7 F17F</t>
+  </si>
+  <si>
+    <t>2.1.8 F1B2</t>
+  </si>
+  <si>
+    <t>2.1.9 F10B</t>
+  </si>
+  <si>
+    <t>3 Programming Counter &amp;  Attempt Counter 00</t>
+  </si>
+  <si>
+    <t>3.1 0200</t>
+  </si>
+  <si>
+    <t>3.2 0201</t>
+  </si>
+  <si>
+    <t>4 Programming Counter &amp;  Attempt Counter 01</t>
+  </si>
+  <si>
+    <t>4.1 0200</t>
+  </si>
+  <si>
+    <t>4.2 0201</t>
+  </si>
+  <si>
+    <t>5 Programming Counter &amp;  Attempt Counter 02</t>
+  </si>
+  <si>
+    <t>5.1 0200</t>
+  </si>
+  <si>
+    <t>5.2 0201</t>
+  </si>
+  <si>
+    <t>6 RBOEL check</t>
+  </si>
+  <si>
+    <t>6.1 F1E0</t>
+  </si>
+  <si>
+    <t>6.2 F1DD</t>
+  </si>
+  <si>
+    <t>6.3 4255</t>
+  </si>
+  <si>
+    <t>6.4 4259</t>
+  </si>
+  <si>
+    <t>ID_37</t>
+  </si>
+  <si>
+    <t>ID_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(220200, 62020000, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(220201, 62020100, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(220200, 62020001, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(220201, 62020101, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(220200, 62020002, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(220201, 62020102, Regexp)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
 2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
 3) wait(5000)
-4) RequestResponse(224259, 62f10b.{8}, Regexp)
-</t>
-  </si>
-  <si>
-    <t>ID_20</t>
-  </si>
-  <si>
-    <t>2 Latest SW</t>
-  </si>
-  <si>
-    <t>ID_21</t>
-  </si>
-  <si>
-    <t>2.1 Select and check variant</t>
-  </si>
-  <si>
-    <t>ID_22</t>
-  </si>
-  <si>
-    <t>2.2 DID - Programming Counter &amp;  Attempt Counter</t>
-  </si>
-  <si>
-    <t>ID_23</t>
-  </si>
-  <si>
-    <t>2.2.1 F195</t>
-  </si>
-  <si>
-    <t>ID_24</t>
-  </si>
-  <si>
-    <t>2.2.2 F180</t>
-  </si>
-  <si>
-    <t>ID_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.3 F181  </t>
-  </si>
-  <si>
-    <t>ID_26</t>
-  </si>
-  <si>
-    <t>2.2.4 F187</t>
-  </si>
-  <si>
-    <t>ID_27</t>
-  </si>
-  <si>
-    <t>2.2.5 F189</t>
-  </si>
-  <si>
-    <t>ID_28</t>
-  </si>
-  <si>
-    <t>2.2.6 F17F</t>
-  </si>
-  <si>
-    <t>ID_29</t>
-  </si>
-  <si>
-    <t>2.2.7 F1B2</t>
-  </si>
-  <si>
-    <t>ID_30</t>
-  </si>
-  <si>
-    <t>2.2.8 F10B</t>
-  </si>
-  <si>
-    <t>ID_31</t>
-  </si>
-  <si>
-    <t>2.2.9 0200</t>
-  </si>
-  <si>
-    <t>ID_32</t>
-  </si>
-  <si>
-    <t>2.2.10 0201</t>
-  </si>
-  <si>
-    <t>ID_33</t>
-  </si>
-  <si>
-    <t>2.2.11 F1E0</t>
-  </si>
-  <si>
-    <t>ID_34</t>
-  </si>
-  <si>
-    <t>2.2.12 F1DD</t>
-  </si>
-  <si>
-    <t>ID_35</t>
-  </si>
-  <si>
-    <t>2.2.13 4255</t>
-  </si>
-  <si>
-    <t>ID_36</t>
-  </si>
-  <si>
-    <t>2.2.14 4259</t>
+4) RequestResponse(22f1e0, 62f1e0.{8}, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(22f1dd, 62f1dd.{8}, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(224259, 62f4259.{8}, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID 0200 using physical addressing 
+</t>
+  </si>
+  <si>
+    <t>To check value of the DID 0200 should be 00</t>
+  </si>
+  <si>
+    <t>To check value of the DID 0201 should be 00</t>
+  </si>
+  <si>
+    <t>To check value of the DID 0201 should be 01</t>
+  </si>
+  <si>
+    <t>To check value of the DID 0200 should be 01</t>
+  </si>
+  <si>
+    <t>To check value of the DID 0200 should be 02</t>
+  </si>
+  <si>
+    <t>To check value of the DID 0201 should be 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID 0201 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F195 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(22f195, 62f195424c30355632.{4}, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F180 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(22f180, 62f180383534303030394146433033422e303031, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F181 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(22f181, 62f181383534303030394146433033412e303032, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(22f187, 62f1873835343030303941464330333030, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(22f189, 62f189383534303030394146433033532e303032, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(22f17f, 62f17f383534303030394146433033482e303030, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(22f1b2, 62f1b2383534303030394146433033432e303032, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(22f10b, 62f10b.{8}, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F187 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F189 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F17F using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F1B2 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F10B using physical addressing
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +557,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -590,6 +636,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -907,10 +959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362BE612-B522-4CE0-8301-D172D1D53111}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" activeCellId="1" sqref="K18 F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,69 +1041,71 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>13</v>
@@ -1069,19 +1123,19 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>13</v>
@@ -1099,19 +1153,19 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>13</v>
@@ -1129,19 +1183,19 @@
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -1156,22 +1210,22 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>13</v>
@@ -1186,22 +1240,22 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
@@ -1216,22 +1270,22 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>13</v>
@@ -1246,22 +1300,22 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
@@ -1275,83 +1329,59 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>13</v>
@@ -1366,22 +1396,22 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -1396,22 +1426,22 @@
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>13</v>
@@ -1426,22 +1456,22 @@
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -1455,41 +1485,53 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -1503,39 +1545,53 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -1550,22 +1606,22 @@
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
@@ -1579,53 +1635,41 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>13</v>
@@ -1640,22 +1684,22 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
@@ -1669,53 +1713,41 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>13</v>
@@ -1730,82 +1762,70 @@
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="5"/>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>13</v>
@@ -1820,22 +1840,22 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -1849,53 +1869,41 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -1910,22 +1918,22 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>13</v>
@@ -1939,45 +1947,71 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
+      <c r="A38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2048,13 +2082,20 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
+    <row r="59" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93B10A3-BF7E-4B3F-8FB7-FF4DE4ED8ADA}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
